--- a/Readme/controller_win.xlsx
+++ b/Readme/controller_win.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>IA32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,15 +62,9 @@
     <t>"Y" is build this image and "N/A" is not build the image</t>
   </si>
   <si>
-    <t>IA32</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Benson Glacier</t>
-  </si>
-  <si>
     <t>Minnow3 Module</t>
   </si>
   <si>
@@ -81,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Aurora Glacier</t>
   </si>
 </sst>
 </file>
@@ -232,13 +229,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -531,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,7 +543,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -572,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -584,10 +581,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
@@ -602,17 +599,19 @@
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="8"/>
       <c r="B4" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
@@ -624,14 +623,14 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>1</v>
@@ -650,26 +649,26 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
@@ -684,20 +683,22 @@
       <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>11</v>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>11</v>
@@ -706,14 +707,14 @@
         <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>1</v>
@@ -731,112 +732,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="6" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
+  <mergeCells count="9">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Readme/controller_win.xlsx
+++ b/Readme/controller_win.xlsx
@@ -530,7 +530,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -574,11 +576,11 @@
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -599,11 +601,11 @@
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
@@ -700,11 +702,11 @@
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>

--- a/Readme/controller_win.xlsx
+++ b/Readme/controller_win.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>IA32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,12 +41,6 @@
     <t>FAB A</t>
   </si>
   <si>
-    <t>FAB B</t>
-  </si>
-  <si>
-    <t>Minnow3</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -75,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Aurora Glacier</t>
   </si>
 </sst>
 </file>
@@ -145,7 +136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -194,22 +185,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,9 +208,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -528,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+      <selection activeCell="C6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -545,13 +522,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -560,200 +537,112 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A11:E11"/>
+  <mergeCells count="5">
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Readme/controller_win.xlsx
+++ b/Readme/controller_win.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>IA32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FAB C</t>
+  </si>
+  <si>
+    <t>UP2</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -185,11 +191,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,14 +223,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="A6:XFD7"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -544,10 +564,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -568,7 +588,7 @@
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
       <c r="A3" s="7"/>
-      <c r="B3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -578,28 +598,26 @@
       <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>11</v>
@@ -609,8 +627,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -620,29 +638,116 @@
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Readme/controller_win.xlsx
+++ b/Readme/controller_win.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>IA32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,9 +59,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Minnow3 Module</t>
-  </si>
-  <si>
     <t>Leaf Hill</t>
   </si>
   <si>
@@ -71,7 +68,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>FAB C</t>
+    <t>Disable flash region access(R)</t>
   </si>
   <si>
     <t>UP2</t>
@@ -142,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -191,22 +188,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,17 +209,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -537,12 +520,13 @@
     <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
     <col min="4" max="7" width="19.7109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="27.85546875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1">
+    <row r="1" spans="1:8" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -562,13 +546,16 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" ht="30" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -585,10 +572,13 @@
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10"/>
+    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -604,11 +594,16 @@
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:8" ht="30" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
@@ -625,8 +620,11 @@
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1">
+    <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
@@ -644,110 +642,26 @@
       <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="9" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:A5"/>
+  <mergeCells count="5">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
